--- a/target/test-classes/testdata.xlsx
+++ b/target/test-classes/testdata.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
+    <sheet name="test1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
   <si>
     <t>Number</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -480,13 +481,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.375" customWidth="1"/>
+    <col min="2" max="2" width="13.125" customWidth="1"/>
     <col min="4" max="4" width="25.375" customWidth="1"/>
     <col min="5" max="5" width="67.625" customWidth="1"/>
     <col min="6" max="6" width="15.625" customWidth="1"/>
@@ -582,4 +584,92 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="17.875" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="5" max="5" width="36.875" customWidth="1"/>
+    <col min="6" max="6" width="12.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="123.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="https://qa-api.hub.hashkey.com/passport/login/app"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/target/test-classes/testdata.xlsx
+++ b/target/test-classes/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
   <si>
     <t>Number</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -105,6 +105,58 @@
   <si>
     <t>unit=USD</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coin/asset/redeem/validate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "coinCode": "QTUM",
+ "isUrgent": false,
+ "qty": "0.1"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUCCESS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入资金密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paramsConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>save:body</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use:body</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coin/asset/redeem/password/verify/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资金密码弹框校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passwordConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -163,7 +215,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -173,6 +225,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -479,23 +534,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.375" customWidth="1"/>
-    <col min="2" max="2" width="13.125" customWidth="1"/>
-    <col min="4" max="4" width="25.375" customWidth="1"/>
-    <col min="5" max="5" width="67.625" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="4" max="4" width="27.125" customWidth="1"/>
+    <col min="5" max="5" width="53.125" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="10.625" customWidth="1"/>
+    <col min="8" max="8" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,9 +570,14 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="123.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="123.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -526,7 +587,7 @@
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -536,7 +597,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -556,7 +617,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -576,13 +637,57 @@
         <v>15</v>
       </c>
     </row>
+    <row r="5" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6">
+        <v>123456</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="https://qa-api.hub.hashkey.com/passport/login/app"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -590,7 +695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/target/test-classes/testdata.xlsx
+++ b/target/test-classes/testdata.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
   <si>
     <t>Number</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -115,6 +115,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>SUCCESS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入资金密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paramsConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>save:body</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use:body</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coin/asset/redeem/password/verify/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资金密码弹框校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{
  "coinCode": "QTUM",
  "isUrgent": false,
@@ -123,39 +155,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SUCCESS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入资金密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>paramsConfig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>save:body</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>use:body</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>coin/asset/redeem/password/verify/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资金密码弹框校验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>passwordConfig</t>
+    <t>{"password":"123456"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>encodeConfig</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -537,7 +545,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -571,10 +579,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="123.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -642,7 +650,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
@@ -651,13 +659,13 @@
         <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="27" x14ac:dyDescent="0.15">
@@ -665,23 +673,25 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6">
-        <v>123456</v>
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
